--- a/biology/Zoologie/Alejandro_Estrada/Alejandro_Estrada.xlsx
+++ b/biology/Zoologie/Alejandro_Estrada/Alejandro_Estrada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alejandro Estrada est un biologiste et primatologue mexicain du XXe siècle, auteur et éditeur de plusieurs livres et articles sur les primates. Ses études mettent l'accent notamment sur le risque d'extinction des primates.
 </t>
@@ -511,11 +523,13 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alejandro Estrada a obtenu son doctorat en primatologie de l'Université Rutgers en 1978. 
-Il devient chercheur scientifique à la station de recherche Los Tuxtlas de l' Université Nationale Autonome de Mexico. Il est également rédacteur en chef de la revue Tropical Conservation Science (en), qui s'intéresse aux forêts tropicales et autres écosystèmes tropicaux. Parmi les livres qu'il a rédigés ou édités figurent De nouvelles perspectives dans l'étude des primates mésoaméricains: distribution, écologie, comportement et conservation (développements en primatologie: progrès et perspectives ) [1] ; Frugivores et dispersion des graines: aspects écologiques et évolutionnaires [2] ; Les forêts tropicales humides du Mexique : une ressource importante mais vulnérable [3] ; Comportement animal : le cas des primates [4].
-Un article publié en 2017 dans la revue Science Advances, avec Paul Garber (en), est intitulé Extinction imminente des primates dans le monde : pourquoi les primates sont importants[5],[6],[7]. Il s'agit d'un appel sans précédent en faveur de leur protection. Une publication connexe de 2018 examine plus en détail ce sujet pour les quatre pays comptant le plus grand nombre d'espèces de primates.
+Il devient chercheur scientifique à la station de recherche Los Tuxtlas de l' Université Nationale Autonome de Mexico. Il est également rédacteur en chef de la revue Tropical Conservation Science (en), qui s'intéresse aux forêts tropicales et autres écosystèmes tropicaux. Parmi les livres qu'il a rédigés ou édités figurent De nouvelles perspectives dans l'étude des primates mésoaméricains: distribution, écologie, comportement et conservation (développements en primatologie: progrès et perspectives )  ; Frugivores et dispersion des graines: aspects écologiques et évolutionnaires  ; Les forêts tropicales humides du Mexique : une ressource importante mais vulnérable  ; Comportement animal : le cas des primates .
+Un article publié en 2017 dans la revue Science Advances, avec Paul Garber (en), est intitulé Extinction imminente des primates dans le monde : pourquoi les primates sont importants. Il s'agit d'un appel sans précédent en faveur de leur protection. Une publication connexe de 2018 examine plus en détail ce sujet pour les quatre pays comptant le plus grand nombre d'espèces de primates.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Projets particuliers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Modèles mondiaux et régionaux de conservation des primates
 Études à long terme de la population, du flux et des liens génétiques, des déplacements au sein de son habitat et de l'utilisation des ressources alimentaires par le singe hurleur du Guatemala (Alouatta pigra) dans le sud-est du Mexique (www.aestradaprimates.com).
@@ -576,7 +592,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Estrada et al. 2018 Primates in peril: the significance of Brazil, Madagascar, Indonesia and the Democratic Republic of the Congo for global primate conservation. PeerJ https://peerj.com/articles/4869/ 
 Estrada, A., Garber, P.A, Anthony Rylands, et al. 2017. Impending extinction of the Worlds primates: Why primates matter. Science Advances Sci. Adv. 2017; 3 : e1600946 
